--- a/data/csv/stats_pitching_raw_tsl_2024_tmp.xlsx
+++ b/data/csv/stats_pitching_raw_tsl_2024_tmp.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
-  <si>
-    <t xml:space="preserve">Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="150">
+  <si>
+    <t xml:space="preserve">Player</t>
   </si>
   <si>
     <t xml:space="preserve">Team</t>
@@ -37,7 +34,7 @@
     <t xml:space="preserve">L</t>
   </si>
   <si>
-    <t xml:space="preserve"> ERA</t>
+    <t xml:space="preserve">  ERA</t>
   </si>
   <si>
     <t xml:space="preserve">APP</t>
@@ -97,16 +94,175 @@
     <t xml:space="preserve">BK</t>
   </si>
   <si>
-    <t xml:space="preserve">SFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FO</t>
+    <t xml:space="preserve">sfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORREALBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRIGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBERTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESLIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN MOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTAL TORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
   </si>
   <si>
     <t xml:space="preserve">GANASSI</t>
@@ -115,88 +271,28 @@
     <t xml:space="preserve">DAVIDE</t>
   </si>
   <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORREALBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADRIGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUBERTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
+    <t xml:space="preserve">AGUILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORLONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
     <t xml:space="preserve">MENDOZA</t>
@@ -205,102 +301,6 @@
     <t xml:space="preserve">RICARDO</t>
   </si>
   <si>
-    <t xml:space="preserve">ATLANTA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NACAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESLIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN MOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LA ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTAL TORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORLONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATTEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA....</t>
-  </si>
-  <si>
     <t xml:space="preserve">RODRIGUEZ</t>
   </si>
   <si>
@@ -310,6 +310,12 @@
     <t xml:space="preserve">TAMPA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">ZIRONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAICOL</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPECK</t>
   </si>
   <si>
@@ -367,6 +373,15 @@
     <t xml:space="preserve">DODGERS.</t>
   </si>
   <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
     <t xml:space="preserve">NARANJO</t>
   </si>
   <si>
@@ -376,15 +391,6 @@
     <t xml:space="preserve">ORIOLES...</t>
   </si>
   <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZAMBRANO</t>
   </si>
   <si>
@@ -394,52 +400,49 @@
     <t xml:space="preserve">DODGERS..</t>
   </si>
   <si>
+    <t xml:space="preserve">SERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOBIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIAZ</t>
   </si>
   <si>
     <t xml:space="preserve">ENMANUEL</t>
   </si>
   <si>
-    <t xml:space="preserve">KOCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOBIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAMONJCA</t>
   </si>
   <si>
     <t xml:space="preserve">MIRKO</t>
   </si>
   <si>
-    <t xml:space="preserve">ORIOLES.... 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIRONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAICOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..... 1</t>
+    <t xml:space="preserve">DELGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS</t>
   </si>
   <si>
     <t xml:space="preserve">MONTIEL</t>
@@ -448,46 +451,25 @@
     <t xml:space="preserve">DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA....... 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA....... 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">REINA</t>
   </si>
   <si>
     <t xml:space="preserve">ROINEL</t>
   </si>
   <si>
-    <t xml:space="preserve">TAMPA........ 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTON</t>
   </si>
   <si>
     <t xml:space="preserve">WILDER</t>
   </si>
   <si>
-    <t xml:space="preserve">ATLANTA...... 2</t>
+    <t xml:space="preserve">ATLANTA......</t>
   </si>
   <si>
     <t xml:space="preserve">VRANA</t>
   </si>
   <si>
     <t xml:space="preserve">ROMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....... 5</t>
   </si>
 </sst>
 </file>
@@ -697,15 +679,16 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
@@ -727,107 +710,104 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AD1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C2,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -854,22 +834,22 @@
         <v>8</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>0</v>
@@ -881,10 +861,10 @@
         <v>27</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>0.148</v>
+        <v>0.222</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="0" t="n">
         <v>0</v>
@@ -895,17 +875,17 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C3,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -917,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -932,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>0</v>
@@ -944,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>0</v>
@@ -959,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>0.222</v>
+        <v>0.118</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="0" t="n">
         <v>0</v>
@@ -976,20 +956,20 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C4,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -998,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1013,37 +993,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="W4" s="0" t="n">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>1</v>
@@ -1057,17 +1037,17 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C5,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -1079,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -1094,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>0</v>
@@ -1106,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>0</v>
@@ -1121,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>0</v>
@@ -1138,17 +1118,17 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C6,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -1175,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
@@ -1187,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>0</v>
@@ -1202,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>0</v>
@@ -1219,17 +1199,17 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C7,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -1259,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>0</v>
@@ -1271,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>0</v>
@@ -1283,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="0" t="n">
         <v>0</v>
@@ -1300,17 +1280,17 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C8,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -1340,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>0</v>
@@ -1349,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>0</v>
@@ -1367,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>0</v>
@@ -1381,17 +1361,17 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C9,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -1418,22 +1398,22 @@
         <v>0</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>0</v>
@@ -1445,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="0" t="n">
         <v>0</v>
@@ -1462,32 +1442,32 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C10,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1499,43 +1479,43 @@
         <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="0" t="n">
         <v>0</v>
@@ -1543,17 +1523,17 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C11,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -1562,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1580,40 +1560,40 @@
         <v>0</v>
       </c>
       <c r="M11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="O11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>0.179</v>
+        <v>0.163</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="0" t="n">
         <v>0</v>
@@ -1624,77 +1604,77 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C12,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>0.185</v>
+        <v>0.205</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>1</v>
@@ -1705,35 +1685,35 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C13,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>0</v>
@@ -1742,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>1</v>
@@ -1766,16 +1746,16 @@
         <v>0</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>0.163</v>
+        <v>0.217</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="0" t="n">
         <v>0</v>
@@ -1795,7 +1775,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14, 1, 3)</f>
+        <f aca="false">MID(C14,1,3)</f>
         <v>DOD</v>
       </c>
       <c r="E14" s="0" t="n">
@@ -1805,16 +1785,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>0</v>
@@ -1823,25 +1803,25 @@
         <v>0</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>1</v>
@@ -1850,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>0.205</v>
+        <v>0.071</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="0" t="n">
         <v>1</v>
@@ -1876,20 +1856,20 @@
         <v>69</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C15,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -1904,25 +1884,25 @@
         <v>0</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>0</v>
@@ -1931,16 +1911,16 @@
         <v>1</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>0.217</v>
+        <v>0.208</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="0" t="n">
         <v>0</v>
@@ -1957,26 +1937,26 @@
         <v>72</v>
       </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C16,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>0</v>
@@ -1985,43 +1965,43 @@
         <v>0</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>0.071</v>
+        <v>0.267</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="0" t="n">
         <v>0</v>
@@ -2038,23 +2018,23 @@
         <v>75</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17, 1, 3)</f>
+        <f aca="false">MID(C17,1,3)</f>
         <v>ORI</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -2066,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>8</v>
+        <v>11.1</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>0</v>
@@ -2093,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>0.267</v>
+        <v>0.205</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>0</v>
@@ -2110,35 +2090,35 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <f aca="false">MID(C18,1,3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18, 1, 3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>0</v>
@@ -2147,31 +2127,31 @@
         <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0" t="n">
         <v>24</v>
@@ -2180,7 +2160,7 @@
         <v>0.208</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>2</v>
@@ -2191,32 +2171,32 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19, 1, 3)</f>
+        <f aca="false">MID(C19,1,3)</f>
         <v>DOD</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>81</v>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -2228,43 +2208,43 @@
         <v>0</v>
       </c>
       <c r="M19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="P19" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Q19" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="X19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Y19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="0" t="n">
         <v>0</v>
@@ -2272,32 +2252,32 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20, 1, 3)</f>
+        <f aca="false">MID(C20,1,3)</f>
         <v>ORI</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>81</v>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2.21</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -2309,43 +2289,43 @@
         <v>0</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>0.095</v>
+        <v>0.313</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="0" t="n">
         <v>0</v>
@@ -2359,14 +2339,14 @@
         <v>86</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C21,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>0</v>
@@ -2375,10 +2355,10 @@
         <v>3.5</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -2390,43 +2370,43 @@
         <v>0</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>0.313</v>
+        <v>0.143</v>
       </c>
       <c r="X21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="0" t="n">
         <v>0</v>
@@ -2434,17 +2414,17 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C22,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -2456,10 +2436,10 @@
         <v>3.5</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -2474,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>1</v>
@@ -2483,10 +2463,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>0</v>
@@ -2495,103 +2475,103 @@
         <v>0</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>0.143</v>
+        <v>0.25</v>
       </c>
       <c r="X22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23, 1, 3)</f>
+        <f aca="false">MID(C23,1,3)</f>
         <v>ATL</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>2</v>
+        <v>11.1</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>0.25</v>
+        <v>0.244</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,7 +2585,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24, 1, 3)</f>
+        <f aca="false">MID(C24,1,3)</f>
         <v>TAM</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -2683,26 +2663,26 @@
         <v>97</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C25,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>4.67</v>
+        <v>4.2</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -2714,19 +2694,19 @@
         <v>0</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>5</v>
@@ -2741,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>0.182</v>
+        <v>0.083</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>0</v>
@@ -2758,77 +2738,77 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C26,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="S26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="X26" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="T26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="W26" s="0" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="X26" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>0</v>
@@ -2839,32 +2819,32 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C27,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -2876,40 +2856,40 @@
         <v>0</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O27" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="P27" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>0.417</v>
+        <v>0.321</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>0</v>
@@ -2926,26 +2906,26 @@
         <v>105</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>81</v>
+        <f aca="false">MID(C28,1,3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>5.73</v>
+        <v>5.25</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -2957,43 +2937,43 @@
         <v>0</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R28" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="0" t="n">
-        <v>37</v>
-      </c>
       <c r="W28" s="0" t="n">
-        <v>0.189</v>
+        <v>0.417</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="0" t="n">
         <v>0</v>
@@ -3001,7 +2981,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>107</v>
@@ -3010,23 +2990,23 @@
         <v>108</v>
       </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C29,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>5.83</v>
+        <v>5.73</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
@@ -3038,43 +3018,43 @@
         <v>0</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>7</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>0.28</v>
+        <v>0.189</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="0" t="n">
         <v>0</v>
@@ -3082,80 +3062,80 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>2</v>
+        <f aca="false">MID(C30,1,3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G30" s="0" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N30" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="O30" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>10</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>0.333</v>
+        <v>0.28</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="0" t="n">
         <v>0</v>
@@ -3163,32 +3143,32 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31, 1, 3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>81</v>
+        <f aca="false">MID(C31,1,3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -3200,43 +3180,43 @@
         <v>0</v>
       </c>
       <c r="M31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>19</v>
-      </c>
       <c r="S31" s="0" t="n">
         <v>3</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>0.143</v>
+        <v>0.333</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="0" t="n">
         <v>0</v>
@@ -3244,32 +3224,32 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C32,1,3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -3281,43 +3261,43 @@
         <v>0</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>0.286</v>
+        <v>0.143</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="0" t="n">
         <v>0</v>
@@ -3325,16 +3305,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33, 1, 3)</f>
+        <f aca="false">MID(C33,1,3)</f>
         <v>ORI</v>
       </c>
       <c r="E33" s="0" t="n">
@@ -3406,17 +3386,17 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C34,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
@@ -3443,22 +3423,22 @@
         <v>0</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S34" s="0" t="n">
         <v>0</v>
@@ -3467,19 +3447,19 @@
         <v>0</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="0" t="n">
         <v>0</v>
@@ -3487,17 +3467,17 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C35,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -3506,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>7.64</v>
+        <v>7</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -3524,43 +3504,43 @@
         <v>0</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="0" t="n">
         <v>0</v>
@@ -3574,11 +3554,11 @@
         <v>127</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C36,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
@@ -3587,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>9.33</v>
+        <v>8.81</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>0</v>
@@ -3605,43 +3585,43 @@
         <v>0</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="N36" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="X36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="W36" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="X36" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Y36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="0" t="n">
         <v>0</v>
@@ -3649,17 +3629,17 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C37,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
@@ -3668,58 +3648,58 @@
         <v>1</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>9.75</v>
+        <v>9.33</v>
       </c>
       <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="N37" s="0" t="n">
+      <c r="O37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="O37" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="S37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="0" t="n">
-        <v>41</v>
-      </c>
       <c r="W37" s="0" t="n">
-        <v>0.293</v>
+        <v>0.333</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="0" t="n">
         <v>0</v>
@@ -3739,7 +3719,7 @@
         <v>133</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38, 1, 3)</f>
+        <f aca="false">MID(C38,1,3)</f>
         <v>ORI</v>
       </c>
       <c r="E38" s="0" t="n">
@@ -3817,26 +3797,26 @@
         <v>135</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C39,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.5</v>
+        <v>9.92</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -3848,43 +3828,43 @@
         <v>0</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0.222</v>
+        <v>0.393</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="0" t="n">
         <v>0</v>
@@ -3892,32 +3872,32 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="C40" s="0" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40, 1, 3)</f>
+        <f aca="false">MID(C40,1,3)</f>
         <v>ORI</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -3929,22 +3909,22 @@
         <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S40" s="0" t="n">
         <v>0</v>
@@ -3956,16 +3936,16 @@
         <v>0</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>0.167</v>
+        <v>0.222</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z40" s="0" t="n">
         <v>0</v>
@@ -3973,29 +3953,29 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C41,1,3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>4</v>
+        <v>11.55</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>0</v>
@@ -4010,37 +3990,37 @@
         <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="N41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="O41" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="P41" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>0.519</v>
+        <v>0.286</v>
       </c>
       <c r="X41" s="0" t="n">
         <v>2</v>
@@ -4054,29 +4034,29 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42, 1, 3)</f>
+        <f aca="false">MID(C42,1,3)</f>
         <v>ATL</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>2</v>
+      <c r="E42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>6.8</v>
+        <v>12.92</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1</v>
@@ -4091,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>8</v>
@@ -4106,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S42" s="0" t="n">
         <v>2</v>
@@ -4118,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="X42" s="0" t="n">
         <v>1</v>
@@ -4135,74 +4115,74 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43, 1, 3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>81</v>
+        <f aca="false">MID(C43,1,3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>7.77</v>
+        <v>14</v>
       </c>
       <c r="H43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>4.1</v>
-      </c>
       <c r="N43" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>0.333</v>
+        <v>0.519</v>
       </c>
       <c r="X43" s="0" t="n">
         <v>2</v>
@@ -4216,16 +4196,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44, 1, 3)</f>
+        <f aca="false">MID(C44,1,3)</f>
         <v>TAM</v>
       </c>
       <c r="E44" s="0" t="n">
@@ -4235,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>2</v>
@@ -4297,16 +4277,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45, 1, 3)</f>
+        <f aca="false">MID(C45,1,3)</f>
         <v>ATL</v>
       </c>
       <c r="E45" s="0" t="n">
@@ -4316,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
@@ -4378,29 +4358,29 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46, 1, 3)</f>
+        <f aca="false">MID(C46,1,3)</f>
         <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>0</v>
@@ -4415,40 +4395,40 @@
         <v>0</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P46" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Q46" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="R46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V46" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="W46" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y46" s="0" t="n">
         <v>3</v>

--- a/data/csv/stats_pitching_raw_tsl_2024_tmp.xlsx
+++ b/data/csv/stats_pitching_raw_tsl_2024_tmp.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="151">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
-    <t xml:space="preserve">Team</t>
+    <t xml:space="preserve">FIRST NAME</t>
   </si>
   <si>
     <t xml:space="preserve">W</t>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">SHO</t>
   </si>
   <si>
+    <t xml:space="preserve">CBO</t>
+  </si>
+  <si>
     <t xml:space="preserve">  IP</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t xml:space="preserve"> R</t>
   </si>
   <si>
-    <t xml:space="preserve">ER</t>
+    <t xml:space="preserve"> ER</t>
   </si>
   <si>
     <t xml:space="preserve">BB</t>
@@ -94,16 +97,16 @@
     <t xml:space="preserve">BK</t>
   </si>
   <si>
-    <t xml:space="preserve">sfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fo</t>
+    <t xml:space="preserve">SFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FO</t>
   </si>
   <si>
     <t xml:space="preserve">TORREALBA</t>
@@ -124,6 +127,24 @@
     <t xml:space="preserve">ATLANTA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">ROCCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBERTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
     <t xml:space="preserve">BONGE</t>
   </si>
   <si>
@@ -142,22 +163,100 @@
     <t xml:space="preserve">TAMPA......</t>
   </si>
   <si>
-    <t xml:space="preserve">ROCCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUBERTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN MOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESLIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTAL TORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES</t>
   </si>
   <si>
     <t xml:space="preserve">ROJAS</t>
@@ -169,102 +268,6 @@
     <t xml:space="preserve">DODGERS.......</t>
   </si>
   <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NACAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESLIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN MOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LA ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTAL TORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
     <t xml:space="preserve">GANASSI</t>
   </si>
   <si>
@@ -286,6 +289,111 @@
     <t xml:space="preserve">TAMPA.......</t>
   </si>
   <si>
+    <t xml:space="preserve">RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIRONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAICOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS..</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORLONI</t>
   </si>
   <si>
@@ -295,111 +403,6 @@
     <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
-    <t xml:space="preserve">MENDOZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEVIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIRONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAICOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAMBRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS..</t>
-  </si>
-  <si>
     <t xml:space="preserve">SERRA</t>
   </si>
   <si>
@@ -415,6 +418,33 @@
     <t xml:space="preserve">ORIOLES.......</t>
   </si>
   <si>
+    <t xml:space="preserve">DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMONJCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALBERTINI</t>
   </si>
   <si>
@@ -422,33 +452,6 @@
   </si>
   <si>
     <t xml:space="preserve">ORIOLES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENMANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMONJCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL</t>
   </si>
   <si>
     <t xml:space="preserve">REINA</t>
@@ -676,17 +679,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="4.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.32"/>
@@ -694,23 +697,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="3.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="4.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="4.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
@@ -790,20 +795,23 @@
       </c>
       <c r="AD1" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2,1,3)</f>
+        <f aca="false">MID(C2, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -831,60 +839,63 @@
         <v>0</v>
       </c>
       <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="T2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>0.222</v>
       </c>
-      <c r="X2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3,1,3)</f>
+        <f aca="false">MID(C3, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
@@ -912,26 +923,26 @@
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="O3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="S3" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" s="0" t="n">
         <v>0</v>
       </c>
@@ -939,34 +950,37 @@
         <v>0</v>
       </c>
       <c r="V3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>0.118</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Y3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C4, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -981,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -993,60 +1007,63 @@
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5,1,3)</f>
+        <f aca="false">MID(C5, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -1059,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>0</v>
@@ -1074,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>3</v>
@@ -1089,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>0</v>
@@ -1101,34 +1118,37 @@
         <v>0</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>0.429</v>
+        <v>9</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C6, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -1140,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -1155,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
@@ -1167,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>0</v>
@@ -1182,33 +1202,36 @@
         <v>0</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7,1,3)</f>
+        <f aca="false">MID(C7, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -1236,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>0</v>
@@ -1251,46 +1274,49 @@
         <v>0</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>1</v>
+        <v>0.429</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C8, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -1317,25 +1343,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>0</v>
@@ -1344,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>0</v>
@@ -1356,121 +1382,127 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <f aca="false">MID(C9, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9,1,3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" s="0" t="n">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C10, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>0</v>
@@ -1479,25 +1511,25 @@
         <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="P10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>1</v>
@@ -1506,52 +1538,55 @@
         <v>0</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>0.179</v>
+        <v>23</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>3</v>
+        <v>0.217</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C11, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
@@ -1560,60 +1595,63 @@
         <v>0</v>
       </c>
       <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>0.163</v>
-      </c>
       <c r="X11" s="0" t="n">
-        <v>0</v>
+        <v>0.071</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12,1,3)</f>
+        <f aca="false">MID(C12, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E12" s="0" t="n">
@@ -1623,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.08</v>
+        <v>1.56</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1641,79 +1679,82 @@
         <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>0.205</v>
+        <v>65</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>3</v>
+        <v>0.215</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C13, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>0</v>
@@ -1722,73 +1763,76 @@
         <v>0</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Q13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>0.217</v>
+        <v>47</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>1</v>
+        <v>0.213</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14,1,3)</f>
+        <f aca="false">MID(C14, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -1803,79 +1847,82 @@
         <v>0</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="S14" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>0.071</v>
+        <v>24</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>2</v>
+        <v>0.208</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15,1,3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C15, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>0</v>
@@ -1884,157 +1931,163 @@
         <v>0</v>
       </c>
       <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="P15" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>0.208</v>
+        <v>39</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <f aca="false">MID(C16, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16,1,3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="S16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="T16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>0.267</v>
+        <v>24</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>1</v>
+        <v>0.208</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17,1,3)</f>
+        <f aca="false">MID(C17, 1, 3)</f>
         <v>ORI</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>77</v>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -2046,76 +2099,79 @@
         <v>0</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>8</v>
+        <v>9.2</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>0.205</v>
+        <v>38</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>3</v>
+        <v>0.289</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18,1,3)</f>
+        <f aca="false">MID(C18, 1, 3)</f>
         <v>DOD</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -2127,60 +2183,63 @@
         <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>0.208</v>
+        <v>14</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>2</v>
+        <v>0.286</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19,1,3)</f>
+        <f aca="false">MID(C19, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -2208,60 +2267,63 @@
         <v>0</v>
       </c>
       <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S19" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="T19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.195</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Y19" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Z19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20,1,3)</f>
+        <f aca="false">MID(C20, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -2289,60 +2351,63 @@
         <v>0</v>
       </c>
       <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O20" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="P20" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="S20" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>0.313</v>
       </c>
-      <c r="X20" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21,1,3)</f>
+        <f aca="false">MID(C21, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -2370,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>1</v>
@@ -2382,129 +2447,135 @@
         <v>1</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>0.143</v>
       </c>
-      <c r="X21" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Y21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C22, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>2</v>
+        <v>11.1</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>0.25</v>
+        <v>40</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23,1,3)</f>
+        <f aca="false">MID(C23, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E23" s="0" t="n">
@@ -2532,106 +2603,109 @@
         <v>0</v>
       </c>
       <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
         <v>11.1</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>11</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="S23" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="T23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>0.244</v>
       </c>
-      <c r="X23" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Y23" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C24, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>3.71</v>
+        <v>4.2</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>0</v>
@@ -2640,18 +2714,21 @@
         <v>0</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>0.2</v>
+        <v>12</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>1</v>
+        <v>0.083</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2663,26 +2740,26 @@
         <v>97</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C25, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>4.2</v>
+        <v>4.34</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -2694,60 +2771,63 @@
         <v>0</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>1</v>
+        <v>9.2</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>5</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>0.083</v>
+        <v>38</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>2</v>
+        <v>0.289</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26,1,3)</f>
+        <f aca="false">MID(C26, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E26" s="0" t="n">
@@ -2775,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>4</v>
@@ -2787,14 +2867,14 @@
         <v>4</v>
       </c>
       <c r="Q26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="S26" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" s="0" t="n">
         <v>0</v>
       </c>
@@ -2802,24 +2882,27 @@
         <v>0</v>
       </c>
       <c r="V26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>0.182</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Y26" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Z26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>102</v>
@@ -2828,23 +2911,23 @@
         <v>103</v>
       </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27,1,3)</f>
+        <f aca="false">MID(C27, 1, 3)</f>
         <v>ATL</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
+      <c r="E27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G27" s="0" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="I27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -2856,45 +2939,48 @@
         <v>0</v>
       </c>
       <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N27" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="P27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="R27" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>0.321</v>
+        <v>27</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>2</v>
+        <v>0.259</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2906,10 +2992,10 @@
         <v>105</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28,1,3)</f>
+        <f aca="false">MID(C28, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -2937,45 +3023,48 @@
         <v>0</v>
       </c>
       <c r="M28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O28" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="P28" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>0.417</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Y28" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Z28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2990,14 +3079,14 @@
         <v>108</v>
       </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29,1,3)</f>
+        <f aca="false">MID(C29, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>5.73</v>
@@ -3018,26 +3107,26 @@
         <v>0</v>
       </c>
       <c r="M29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>9</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>9</v>
       </c>
       <c r="Q29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R29" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="S29" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="T29" s="0" t="n">
         <v>1</v>
       </c>
@@ -3045,49 +3134,52 @@
         <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>0.189</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Y29" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Z29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30,1,3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>77</v>
+        <f aca="false">MID(C30, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>5.83</v>
+        <v>6</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -3099,76 +3191,79 @@
         <v>0</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>7</v>
       </c>
       <c r="O30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="P30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="R30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="S30" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>0.28</v>
+        <v>27</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31,1,3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>2</v>
+        <f aca="false">MID(C31, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -3180,76 +3275,79 @@
         <v>0</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="O31" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="R31" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>0.333</v>
+        <v>35</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>4</v>
+        <v>0.143</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32,1,3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>77</v>
+        <f aca="false">MID(C32, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -3261,25 +3359,25 @@
         <v>0</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
@@ -3288,33 +3386,36 @@
         <v>0</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>0.143</v>
+        <v>7</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>5</v>
+        <v>0.286</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33,1,3)</f>
+        <f aca="false">MID(C33, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E33" s="0" t="n">
@@ -3342,25 +3443,25 @@
         <v>0</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R33" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="S33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>0</v>
@@ -3369,34 +3470,37 @@
         <v>0</v>
       </c>
       <c r="V33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="W33" s="0" t="n">
+      <c r="X33" s="0" t="n">
         <v>0.143</v>
       </c>
-      <c r="X33" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Y33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C34, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
@@ -3423,16 +3527,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>1</v>
@@ -3447,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>0.286</v>
+        <v>3</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>0</v>
@@ -3462,22 +3566,25 @@
         <v>0</v>
       </c>
       <c r="Z34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C35, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -3486,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>7</v>
+        <v>7.64</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -3504,60 +3611,63 @@
         <v>0</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z35" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36,1,3)</f>
+        <f aca="false">MID(C36, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E36" s="0" t="n">
@@ -3585,60 +3695,63 @@
         <v>0</v>
       </c>
       <c r="M36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>10.1</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="O36" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="P36" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="Q36" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="R36" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="S36" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="T36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="T36" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="U36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="W36" s="0" t="n">
+      <c r="X36" s="0" t="n">
         <v>0.279</v>
       </c>
-      <c r="X36" s="0" t="n">
+      <c r="Y36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Y36" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Z36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37,1,3)</f>
+        <f aca="false">MID(C37, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E37" s="0" t="n">
@@ -3666,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>4</v>
@@ -3684,43 +3797,46 @@
         <v>4</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W37" s="0" t="n">
+      <c r="X37" s="0" t="n">
         <v>0.333</v>
       </c>
-      <c r="X37" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Y37" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C38, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>0</v>
@@ -3729,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>9.88</v>
+        <v>9.92</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -3747,45 +3863,48 @@
         <v>0</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="N38" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="T38" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O38" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="R38" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="S38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T38" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="U38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>0.273</v>
+        <v>61</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>2</v>
+        <v>0.393</v>
       </c>
       <c r="Y38" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3797,26 +3916,26 @@
         <v>135</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C39, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>9.92</v>
+        <v>10.5</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -3828,45 +3947,48 @@
         <v>0</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0.393</v>
+        <v>9</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>3</v>
+        <v>0.222</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3875,29 +3997,29 @@
         <v>136</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40,1,3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0</v>
+        <f aca="false">MID(C40, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>10.5</v>
+        <v>11.55</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -3909,126 +4031,132 @@
         <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>0.222</v>
+        <v>28</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="Y40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Z40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C41, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>11.55</v>
+        <v>12.92</v>
       </c>
       <c r="H41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R41" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="S41" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>0.286</v>
+        <v>22</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4040,76 +4168,79 @@
         <v>140</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42,1,3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>76</v>
+        <f aca="false">MID(C42, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>12.92</v>
+        <v>14</v>
       </c>
       <c r="H42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="O42" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P42" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q42" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Q42" s="0" t="n">
+      <c r="R42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T42" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="U42" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>0.5</v>
+        <v>27</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>1</v>
+        <v>0.519</v>
       </c>
       <c r="Y42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4121,26 +4252,26 @@
         <v>142</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43,1,3)</f>
+        <f aca="false">MID(C43, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>14</v>
+        <v>15.17</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4152,60 +4283,63 @@
         <v>0</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>0.519</v>
+        <v>24</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>2</v>
+        <v>0.292</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44,1,3)</f>
+        <f aca="false">MID(C44, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E44" s="0" t="n">
@@ -4233,60 +4367,63 @@
         <v>0</v>
       </c>
       <c r="M44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
         <v>1.2</v>
       </c>
-      <c r="N44" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="O44" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>5</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="W44" s="0" t="n">
+      <c r="X44" s="0" t="n">
         <v>0.375</v>
       </c>
-      <c r="X44" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45,1,3)</f>
+        <f aca="false">MID(C45, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E45" s="0" t="n">
@@ -4314,25 +4451,25 @@
         <v>0</v>
       </c>
       <c r="M45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="N45" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="O45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P45" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Q45" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>0</v>
@@ -4341,33 +4478,36 @@
         <v>0</v>
       </c>
       <c r="V45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="W45" s="0" t="n">
+      <c r="X45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="X45" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Y45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46,1,3)</f>
+        <f aca="false">MID(C46, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">
@@ -4395,45 +4535,48 @@
         <v>0</v>
       </c>
       <c r="M46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="O46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O46" s="0" t="n">
+      <c r="P46" s="0" t="n">
         <v>13</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>12</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>12</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="W46" s="0" t="n">
+      <c r="X46" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="X46" s="0" t="n">
+      <c r="Y46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Y46" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="Z46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
